--- a/biology/Zoologie/Furnariidae/Furnariidae.xlsx
+++ b/biology/Zoologie/Furnariidae/Furnariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Furnariidae (ou furnariidés en français) sont une famille de passereaux constituée de 72 genres et plus de 310 espèces.
 Elle comprend les fourniers et les espèces apparentées : géosittes, upucerthies, chilia, cinclodes, synallaxes, annumbis, pseudosittines, têtes-de-feu, queues-grises, anabasittes, cacholotes, anabates, sclérures, picerties, sittines, mégasittines et picotelles.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux de taille petite à moyenne (de 10 à 26 cm), la plupart aux ailes courtes et arrondies. Leurs pattes et pieds sont généralement puissants. Ils ont souvent la queue longue avec le rachis des plumes renforcé. Leur plumage est souvent à dominante brunâtre.
 Ils vivent en Amérique du Sud et Centrale, où les différentes espèces se partagent tous les types de milieux.
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les furnaridés tirent leur nom des nids des fourniers en argile ressemblant à peu près à un four ou un creuset, bien que la plupart des autres oiseaux construisent des nids de bâtons ou nichent dans des fentes ou des galeries de rochers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les furnaridés tirent leur nom des nids des fourniers en argile ressemblant à peu près à un four ou un creuset, bien que la plupart des autres oiseaux construisent des nids de bâtons ou nichent dans des fentes ou des galeries de rochers.
 </t>
         </is>
       </c>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste alphabétique des genres
-D'après la classification de référence du Congrès ornithologique international  (version 14.1, 2024)[2] :
+          <t>Liste alphabétique des genres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 14.1, 2024) :
 Acrobatornis (1 espèce)
 Anabazenops (2 espèces)
 Anabacerthia (5 espèces)
@@ -649,8 +670,43 @@
 Xenops (4 espèces)
 Xiphocolaptes (4 espèces)
 Xiphorhynchus (13 espèces)
-Liste des espèces
-D'après la classification de référence du Congrès ornithologique international  (version 5.2, 2015)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Furnariidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Furnariidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la classification de référence du Congrès ornithologique international  (version 5.2, 2015) :
 Liste des espèces
 Geositta poeciloptera – Géositte des campos
 Geositta cunicularia – Géositte mineuse
